--- a/directed_trips_regions_bimonthly_HCR_minus2.xlsx
+++ b/directed_trips_regions_bimonthly_HCR_minus2.xlsx
@@ -462,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F124"/>
     </sheetView>
   </sheetViews>
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="2">
-        <f>R2-2</f>
+        <f>ROUNDDOWN(R2-2, 0)</f>
         <v>17</v>
       </c>
       <c r="G2" s="1">
@@ -658,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F66" si="0">R3-2</f>
+        <f t="shared" ref="F3:F66" si="0">ROUNDDOWN(R3-2, 0)</f>
         <v>17</v>
       </c>
       <c r="G3" s="1">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1">
         <v>100</v>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1">
         <v>100</v>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1">
         <v>100</v>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G17" s="1">
         <v>100</v>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G18" s="1">
         <v>100</v>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G19" s="1">
         <v>100</v>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1">
         <v>100</v>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G21" s="1">
         <v>100</v>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G22" s="1">
         <v>100</v>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G23" s="1">
         <v>100</v>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G24" s="1">
         <v>100</v>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G25" s="1">
         <v>100</v>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G26" s="1">
         <v>100</v>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G27" s="1">
         <v>100</v>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G28" s="1">
         <v>100</v>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="F29" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G29" s="1">
         <v>100</v>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="F41" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G41" s="1">
         <v>100</v>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="F42" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G42" s="1">
         <v>100</v>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="F43" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G43" s="1">
         <v>100</v>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="F44" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G44" s="1">
         <v>100</v>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="F45" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G45" s="1">
         <v>100</v>
@@ -4400,7 +4400,7 @@
       </c>
       <c r="F46" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G46" s="1">
         <v>100</v>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="F47" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G47" s="1">
         <v>100</v>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="F48" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G48" s="1">
         <v>100</v>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="F49" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G49" s="1">
         <v>100</v>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="F50" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G50" s="1">
         <v>100</v>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="F51" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G51" s="1">
         <v>100</v>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="F52" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G52" s="1">
         <v>100</v>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="F53" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G53" s="1">
         <v>100</v>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="F54" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G54" s="1">
         <v>100</v>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="F55" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G55" s="1">
         <v>100</v>
@@ -5270,7 +5270,7 @@
       </c>
       <c r="F56" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G56" s="1">
         <v>100</v>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F57" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G57" s="1">
         <v>100</v>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="F58" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G58" s="1">
         <v>100</v>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="F59" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G59" s="1">
         <v>100</v>
@@ -5618,7 +5618,7 @@
       </c>
       <c r="F60" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G60" s="1">
         <v>100</v>
@@ -5705,7 +5705,7 @@
       </c>
       <c r="F61" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G61" s="1">
         <v>100</v>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="F62" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G62" s="1">
         <v>100</v>
@@ -5879,7 +5879,7 @@
       </c>
       <c r="F63" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G63" s="1">
         <v>100</v>
@@ -5966,7 +5966,7 @@
       </c>
       <c r="F64" s="2">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G64" s="1">
         <v>100</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" ref="F67:F124" si="1">R67-2</f>
+        <f t="shared" ref="F67:F124" si="1">ROUNDDOWN(R67-2, 0)</f>
         <v>98</v>
       </c>
       <c r="G67" s="1">
@@ -9881,7 +9881,7 @@
       </c>
       <c r="F109" s="2">
         <f t="shared" si="1"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G109" s="1">
         <v>100</v>
@@ -9968,7 +9968,7 @@
       </c>
       <c r="F110" s="2">
         <f t="shared" si="1"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G110" s="1">
         <v>100</v>
@@ -10055,7 +10055,7 @@
       </c>
       <c r="F111" s="2">
         <f t="shared" si="1"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G111" s="1">
         <v>100</v>
@@ -10142,7 +10142,7 @@
       </c>
       <c r="F112" s="2">
         <f t="shared" si="1"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G112" s="1">
         <v>100</v>
@@ -10229,7 +10229,7 @@
       </c>
       <c r="F113" s="2">
         <f t="shared" si="1"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G113" s="1">
         <v>100</v>
@@ -10316,7 +10316,7 @@
       </c>
       <c r="F114" s="2">
         <f t="shared" si="1"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G114" s="1">
         <v>100</v>
@@ -10403,7 +10403,7 @@
       </c>
       <c r="F115" s="2">
         <f t="shared" si="1"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G115" s="1">
         <v>100</v>
@@ -10490,7 +10490,7 @@
       </c>
       <c r="F116" s="2">
         <f t="shared" si="1"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G116" s="1">
         <v>100</v>
@@ -10577,7 +10577,7 @@
       </c>
       <c r="F117" s="2">
         <f t="shared" si="1"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G117" s="1">
         <v>100</v>
@@ -10664,7 +10664,7 @@
       </c>
       <c r="F118" s="2">
         <f t="shared" si="1"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G118" s="1">
         <v>100</v>
@@ -10751,7 +10751,7 @@
       </c>
       <c r="F119" s="2">
         <f t="shared" si="1"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G119" s="1">
         <v>100</v>
@@ -10838,7 +10838,7 @@
       </c>
       <c r="F120" s="2">
         <f t="shared" si="1"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G120" s="1">
         <v>100</v>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="F121" s="2">
         <f t="shared" si="1"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G121" s="1">
         <v>100</v>
@@ -11012,7 +11012,7 @@
       </c>
       <c r="F122" s="2">
         <f t="shared" si="1"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G122" s="1">
         <v>100</v>
@@ -11099,7 +11099,7 @@
       </c>
       <c r="F123" s="2">
         <f t="shared" si="1"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G123" s="1">
         <v>100</v>
@@ -11186,7 +11186,7 @@
       </c>
       <c r="F124" s="2">
         <f t="shared" si="1"/>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="G124" s="1">
         <v>100</v>
